--- a/Task/task_bomsai/Bomsai.xlsx
+++ b/Task/task_bomsai/Bomsai.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>registro</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>sequia de hojas luego de riesgo</t>
+  </si>
+  <si>
+    <t>no tiene rasgos de vida</t>
   </si>
 </sst>
 </file>
@@ -356,7 +359,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -414,7 +417,12 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>45114</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
